--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H2">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I2">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J2">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N2">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O2">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P2">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q2">
-        <v>1.032061133347222</v>
+        <v>24.260755580548</v>
       </c>
       <c r="R2">
-        <v>9.288550200124998</v>
+        <v>218.346800224932</v>
       </c>
       <c r="S2">
-        <v>1.687346221469491E-05</v>
+        <v>0.0004797542521219384</v>
       </c>
       <c r="T2">
-        <v>1.687346221469491E-05</v>
+        <v>0.0004797542521219385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H3">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I3">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J3">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>112.478866</v>
       </c>
       <c r="O3">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P3">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q3">
-        <v>5.061486481741111</v>
+        <v>75.50798757203155</v>
       </c>
       <c r="R3">
-        <v>45.55337833567</v>
+        <v>679.571888148284</v>
       </c>
       <c r="S3">
-        <v>8.275168799629091E-05</v>
+        <v>0.001493163639796019</v>
       </c>
       <c r="T3">
-        <v>8.27516879962909E-05</v>
+        <v>0.001493163639796019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H4">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I4">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J4">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N4">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O4">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P4">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q4">
-        <v>7.912427994497778</v>
+        <v>107.2163842577218</v>
       </c>
       <c r="R4">
-        <v>71.21185195048</v>
+        <v>964.947458319496</v>
       </c>
       <c r="S4">
-        <v>0.0001293625449866979</v>
+        <v>0.00212019432263782</v>
       </c>
       <c r="T4">
-        <v>0.0001293625449866979</v>
+        <v>0.00212019432263782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H5">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I5">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J5">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N5">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O5">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P5">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q5">
-        <v>2.762593608485</v>
+        <v>30.779116797216</v>
       </c>
       <c r="R5">
-        <v>24.863342476365</v>
+        <v>277.012051174944</v>
       </c>
       <c r="S5">
-        <v>4.516643187225473E-05</v>
+        <v>0.0006086542569128267</v>
       </c>
       <c r="T5">
-        <v>4.516643187225472E-05</v>
+        <v>0.0006086542569128268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H6">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I6">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J6">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N6">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O6">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P6">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q6">
-        <v>1.588210662218889</v>
+        <v>20.19703623497667</v>
       </c>
       <c r="R6">
-        <v>14.29389595997</v>
+        <v>181.77332611479</v>
       </c>
       <c r="S6">
-        <v>2.59661096925641E-05</v>
+        <v>0.0003993945688055959</v>
       </c>
       <c r="T6">
-        <v>2.59661096925641E-05</v>
+        <v>0.0003993945688055959</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H7">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I7">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J7">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N7">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O7">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P7">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q7">
-        <v>8.09619114578889</v>
+        <v>120.5636055404658</v>
       </c>
       <c r="R7">
-        <v>72.86572031210001</v>
+        <v>1085.072449864192</v>
       </c>
       <c r="S7">
-        <v>0.0001323669412279433</v>
+        <v>0.002384134418944756</v>
       </c>
       <c r="T7">
-        <v>0.0001323669412279433</v>
+        <v>0.002384134418944756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>1.448602</v>
       </c>
       <c r="H8">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I8">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J8">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N8">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O8">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P8">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q8">
-        <v>11.07455021831666</v>
+        <v>17.450592684612</v>
       </c>
       <c r="R8">
-        <v>99.67095196484998</v>
+        <v>157.055334161508</v>
       </c>
       <c r="S8">
-        <v>0.000181060984292138</v>
+        <v>0.0003450838954580282</v>
       </c>
       <c r="T8">
-        <v>0.000181060984292138</v>
+        <v>0.0003450838954580283</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>1.448602</v>
       </c>
       <c r="H9">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I9">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J9">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>112.478866</v>
       </c>
       <c r="O9">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P9">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q9">
-        <v>54.31237008177733</v>
+        <v>54.31237008177734</v>
       </c>
       <c r="R9">
         <v>488.811330735996</v>
       </c>
       <c r="S9">
-        <v>0.0008879684494979173</v>
+        <v>0.001074022216787218</v>
       </c>
       <c r="T9">
-        <v>0.0008879684494979171</v>
+        <v>0.001074022216787218</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>1.448602</v>
       </c>
       <c r="H10">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I10">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J10">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N10">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O10">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P10">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q10">
-        <v>84.90444833406933</v>
+        <v>77.11999919320267</v>
       </c>
       <c r="R10">
-        <v>764.1400350066239</v>
+        <v>694.0799927388241</v>
       </c>
       <c r="S10">
-        <v>0.001388127073614395</v>
+        <v>0.001525041024123937</v>
       </c>
       <c r="T10">
-        <v>0.001388127073614394</v>
+        <v>0.001525041024123937</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>1.448602</v>
       </c>
       <c r="H11">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I11">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J11">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N11">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O11">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P11">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q11">
-        <v>29.644059505218</v>
+        <v>22.139204553504</v>
       </c>
       <c r="R11">
-        <v>266.796535546962</v>
+        <v>199.252840981536</v>
       </c>
       <c r="S11">
-        <v>0.0004846591948765685</v>
+        <v>0.0004378007720277693</v>
       </c>
       <c r="T11">
-        <v>0.0004846591948765684</v>
+        <v>0.0004378007720277694</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>1.448602</v>
       </c>
       <c r="H12">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I12">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J12">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N12">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O12">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P12">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q12">
-        <v>17.04232255987067</v>
+        <v>14.52758763439</v>
       </c>
       <c r="R12">
-        <v>153.380903038836</v>
+        <v>130.74828870951</v>
       </c>
       <c r="S12">
-        <v>0.0002786297986360406</v>
+        <v>0.0002872817343850947</v>
       </c>
       <c r="T12">
-        <v>0.0002786297986360405</v>
+        <v>0.0002872817343850948</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>1.448602</v>
       </c>
       <c r="H13">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I13">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J13">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N13">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O13">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P13">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q13">
-        <v>86.87632207438668</v>
+        <v>86.72056259293868</v>
       </c>
       <c r="R13">
-        <v>781.88689866948</v>
+        <v>780.4850633364481</v>
       </c>
       <c r="S13">
-        <v>0.001420365800540855</v>
+        <v>0.001714891298922574</v>
       </c>
       <c r="T13">
-        <v>0.001420365800540854</v>
+        <v>0.001714891298922574</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H14">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I14">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J14">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N14">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O14">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P14">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q14">
-        <v>485.7995887798667</v>
+        <v>677.016773307062</v>
       </c>
       <c r="R14">
-        <v>4372.1962990188</v>
+        <v>6093.150959763558</v>
       </c>
       <c r="S14">
-        <v>0.007942476216119265</v>
+        <v>0.01338794559277287</v>
       </c>
       <c r="T14">
-        <v>0.007942476216119265</v>
+        <v>0.01338794559277287</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H15">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I15">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J15">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>112.478866</v>
       </c>
       <c r="O15">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P15">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q15">
-        <v>2382.482947952886</v>
+        <v>2107.113850399372</v>
       </c>
       <c r="R15">
-        <v>21442.34653157597</v>
+        <v>18964.02465359434</v>
       </c>
       <c r="S15">
-        <v>0.03895189412768342</v>
+        <v>0.04166798622894722</v>
       </c>
       <c r="T15">
-        <v>0.03895189412768341</v>
+        <v>0.04166798622894723</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H16">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I16">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J16">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N16">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O16">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P16">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q16">
-        <v>3724.444358747221</v>
+        <v>2991.963307771525</v>
       </c>
       <c r="R16">
-        <v>33519.99922872499</v>
+        <v>26927.66976994372</v>
       </c>
       <c r="S16">
-        <v>0.06089200448255986</v>
+        <v>0.05916580439263408</v>
       </c>
       <c r="T16">
-        <v>0.06089200448255985</v>
+        <v>0.05916580439263409</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H17">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I17">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J17">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N17">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O17">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P17">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q17">
-        <v>1300.375332045744</v>
+        <v>858.9171211139039</v>
       </c>
       <c r="R17">
-        <v>11703.3779884117</v>
+        <v>7730.254090025136</v>
       </c>
       <c r="S17">
-        <v>0.02126020767687722</v>
+        <v>0.01698500855452011</v>
       </c>
       <c r="T17">
-        <v>0.02126020767687722</v>
+        <v>0.01698500855452012</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H18">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I18">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J18">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N18">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O18">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P18">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q18">
-        <v>747.5837057242986</v>
+        <v>563.6152698035983</v>
       </c>
       <c r="R18">
-        <v>6728.253351518688</v>
+        <v>5072.537428232385</v>
       </c>
       <c r="S18">
-        <v>0.01222245950678257</v>
+        <v>0.01114544109524482</v>
       </c>
       <c r="T18">
-        <v>0.01222245950678257</v>
+        <v>0.01114544109524482</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H19">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I19">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J19">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N19">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O19">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P19">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q19">
-        <v>3810.943172088427</v>
+        <v>3364.42873472236</v>
       </c>
       <c r="R19">
-        <v>34298.48854879585</v>
+        <v>30279.85861250125</v>
       </c>
       <c r="S19">
-        <v>0.06230619828500949</v>
+        <v>0.06653127459634653</v>
       </c>
       <c r="T19">
-        <v>0.06230619828500949</v>
+        <v>0.06653127459634654</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H20">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I20">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J20">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N20">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O20">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P20">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q20">
-        <v>18.39949959884166</v>
+        <v>29.171694449038</v>
       </c>
       <c r="R20">
-        <v>165.595496389575</v>
+        <v>262.545250041342</v>
       </c>
       <c r="S20">
-        <v>0.0003008186736413977</v>
+        <v>0.0005768676250441746</v>
       </c>
       <c r="T20">
-        <v>0.0003008186736413976</v>
+        <v>0.0005768676250441747</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H21">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I21">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J21">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>112.478866</v>
       </c>
       <c r="O21">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P21">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q21">
-        <v>90.23575782599133</v>
+        <v>90.7925532079949</v>
       </c>
       <c r="R21">
-        <v>812.1218204339219</v>
+        <v>817.132978871954</v>
       </c>
       <c r="S21">
-        <v>0.001475290175062694</v>
+        <v>0.001795414545846515</v>
       </c>
       <c r="T21">
-        <v>0.001475290175062693</v>
+        <v>0.001795414545846515</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H22">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I22">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J22">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N22">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O22">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P22">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q22">
-        <v>141.0621047596853</v>
+        <v>128.9194638276085</v>
       </c>
       <c r="R22">
-        <v>1269.558942837168</v>
+        <v>1160.275174448476</v>
       </c>
       <c r="S22">
-        <v>0.002306264636541738</v>
+        <v>0.002549370762473941</v>
       </c>
       <c r="T22">
-        <v>0.002306264636541738</v>
+        <v>0.002549370762473942</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H23">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I23">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J23">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N23">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O23">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P23">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q23">
-        <v>49.251287882751</v>
+        <v>37.00952295729601</v>
       </c>
       <c r="R23">
-        <v>443.261590944759</v>
+        <v>333.085706615664</v>
       </c>
       <c r="S23">
-        <v>0.0008052233712351893</v>
+        <v>0.00073185997644704</v>
       </c>
       <c r="T23">
-        <v>0.0008052233712351892</v>
+        <v>0.0007318599764470403</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H24">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I24">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J24">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N24">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O24">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P24">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q24">
-        <v>28.31448690214466</v>
+        <v>24.28538418215167</v>
       </c>
       <c r="R24">
-        <v>254.830382119302</v>
+        <v>218.568457639365</v>
       </c>
       <c r="S24">
-        <v>0.0004629216326772334</v>
+        <v>0.0004802412804959702</v>
       </c>
       <c r="T24">
-        <v>0.0004629216326772333</v>
+        <v>0.0004802412804959703</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H25">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I25">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J25">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N25">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O25">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P25">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q25">
-        <v>144.3382188572067</v>
+        <v>144.9684718525725</v>
       </c>
       <c r="R25">
-        <v>1299.04396971486</v>
+        <v>1304.716246673152</v>
       </c>
       <c r="S25">
-        <v>0.002359826761545198</v>
+        <v>0.002866738447777569</v>
       </c>
       <c r="T25">
-        <v>0.002359826761545197</v>
+        <v>0.00286673844777757</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H26">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I26">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J26">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N26">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O26">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P26">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q26">
-        <v>1254.48354998328</v>
+        <v>2192.267597425132</v>
       </c>
       <c r="R26">
-        <v>11290.35194984952</v>
+        <v>19730.40837682619</v>
       </c>
       <c r="S26">
-        <v>0.02050990982573677</v>
+        <v>0.04335189389143074</v>
       </c>
       <c r="T26">
-        <v>0.02050990982573677</v>
+        <v>0.04335189389143074</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H27">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I27">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J27">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>112.478866</v>
       </c>
       <c r="O27">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P27">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q27">
-        <v>6152.301762603784</v>
+        <v>6823.106310574573</v>
       </c>
       <c r="R27">
-        <v>55370.71586343406</v>
+        <v>61407.95679517115</v>
       </c>
       <c r="S27">
-        <v>0.1005857385482709</v>
+        <v>0.1349263115202714</v>
       </c>
       <c r="T27">
-        <v>0.1005857385482709</v>
+        <v>0.1349263115202714</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H28">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I28">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J28">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N28">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O28">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P28">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q28">
-        <v>9617.657751854507</v>
+        <v>9688.362934159541</v>
       </c>
       <c r="R28">
-        <v>86558.91976669058</v>
+        <v>87195.26640743586</v>
       </c>
       <c r="S28">
-        <v>0.1572418332850704</v>
+        <v>0.1915865026681345</v>
       </c>
       <c r="T28">
-        <v>0.1572418332850703</v>
+        <v>0.1915865026681345</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H29">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I29">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J29">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N29">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O29">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P29">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q29">
-        <v>3357.967978014557</v>
+        <v>2781.284375413344</v>
       </c>
       <c r="R29">
-        <v>30221.71180213102</v>
+        <v>25031.5593787201</v>
       </c>
       <c r="S29">
-        <v>0.05490037747223398</v>
+        <v>0.05499964751859232</v>
       </c>
       <c r="T29">
-        <v>0.05490037747223397</v>
+        <v>0.05499964751859232</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H30">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I30">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J30">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N30">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O30">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P30">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q30">
-        <v>1930.490438293968</v>
+        <v>1825.058908612957</v>
       </c>
       <c r="R30">
-        <v>17374.41394464571</v>
+        <v>16425.53017751661</v>
       </c>
       <c r="S30">
-        <v>0.03156213950305211</v>
+        <v>0.03609037521000048</v>
       </c>
       <c r="T30">
-        <v>0.0315621395030521</v>
+        <v>0.03609037521000048</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H31">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I31">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J31">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N31">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O31">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P31">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q31">
-        <v>9841.024220118004</v>
+        <v>10894.45400731984</v>
       </c>
       <c r="R31">
-        <v>88569.21798106203</v>
+        <v>98050.08606587852</v>
       </c>
       <c r="S31">
-        <v>0.1608937154657802</v>
+        <v>0.2154368447926354</v>
       </c>
       <c r="T31">
-        <v>0.1608937154657802</v>
+        <v>0.2154368447926354</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H32">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I32">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J32">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N32">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O32">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P32">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q32">
-        <v>615.5500127419416</v>
+        <v>300.954558655356</v>
       </c>
       <c r="R32">
-        <v>5539.950114677475</v>
+        <v>2708.591027898204</v>
       </c>
       <c r="S32">
-        <v>0.01006380295280604</v>
+        <v>0.005951349236878427</v>
       </c>
       <c r="T32">
-        <v>0.01006380295280604</v>
+        <v>0.005951349236878428</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H33">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I33">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J33">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>112.478866</v>
       </c>
       <c r="O33">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P33">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q33">
-        <v>3018.811548715407</v>
+        <v>936.6762300229053</v>
       </c>
       <c r="R33">
-        <v>27169.30393843866</v>
+        <v>8430.086070206147</v>
       </c>
       <c r="S33">
-        <v>0.04935541215018002</v>
+        <v>0.01852268791559563</v>
       </c>
       <c r="T33">
-        <v>0.04935541215018002</v>
+        <v>0.01852268791559563</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H34">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I34">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J34">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N34">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O34">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P34">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q34">
-        <v>4719.192493022789</v>
+        <v>1330.018741492835</v>
       </c>
       <c r="R34">
-        <v>42472.7324372051</v>
+        <v>11970.16867343551</v>
       </c>
       <c r="S34">
-        <v>0.07715542581923956</v>
+        <v>0.02630100058155912</v>
       </c>
       <c r="T34">
-        <v>0.07715542581923955</v>
+        <v>0.02630100058155912</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H35">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I35">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J35">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N35">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O35">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P35">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q35">
-        <v>1647.687792862203</v>
+        <v>381.814798832352</v>
       </c>
       <c r="R35">
-        <v>14829.19013575983</v>
+        <v>3436.333189491168</v>
       </c>
       <c r="S35">
-        <v>0.02693851828748287</v>
+        <v>0.007550353188907804</v>
       </c>
       <c r="T35">
-        <v>0.02693851828748287</v>
+        <v>0.007550353188907806</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H36">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I36">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J36">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N36">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O36">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P36">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q36">
-        <v>947.2530858662005</v>
+        <v>250.54413932257</v>
       </c>
       <c r="R36">
-        <v>8525.277772795806</v>
+        <v>2254.89725390313</v>
       </c>
       <c r="S36">
-        <v>0.01548691122615804</v>
+        <v>0.004954487744009466</v>
       </c>
       <c r="T36">
-        <v>0.01548691122615804</v>
+        <v>0.004954487744009466</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H37">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I37">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J37">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N37">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O37">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P37">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q37">
-        <v>4828.793956021287</v>
+        <v>1495.590958610603</v>
       </c>
       <c r="R37">
-        <v>43459.14560419158</v>
+        <v>13460.31862749542</v>
       </c>
       <c r="S37">
-        <v>0.07894733143880547</v>
+        <v>0.02957517623251021</v>
       </c>
       <c r="T37">
-        <v>0.07894733143880546</v>
+        <v>0.02957517623251021</v>
       </c>
     </row>
   </sheetData>
